--- a/para_dt.xlsx
+++ b/para_dt.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4939c42b6b4aa92f/Documents/GitHub/BART-comp-model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="11_6CEF7FD58F79A8D366075C52F37BD272AA4783D6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0ECE56CD-5D2B-4628-AD7F-8BFB60225918}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="11_6CEF7FD58F79A8D366075C52F37BD272AA4783D6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7415B3D4-871E-4F07-8EC3-536E1CDDF8B9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -583,7 +583,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -595,7 +595,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -636,6 +635,9 @@
       <c:pivotFmt>
         <c:idx val="0"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -692,6 +694,9 @@
       <c:pivotFmt>
         <c:idx val="1"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -748,6 +753,9 @@
       <c:pivotFmt>
         <c:idx val="2"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -804,6 +812,9 @@
       <c:pivotFmt>
         <c:idx val="3"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -860,6 +871,9 @@
       <c:pivotFmt>
         <c:idx val="4"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -916,6 +930,9 @@
       <c:pivotFmt>
         <c:idx val="5"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -972,6 +989,9 @@
       <c:pivotFmt>
         <c:idx val="6"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1028,6 +1048,9 @@
       <c:pivotFmt>
         <c:idx val="7"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1084,6 +1107,9 @@
       <c:pivotFmt>
         <c:idx val="8"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1140,6 +1166,9 @@
       <c:pivotFmt>
         <c:idx val="9"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1196,6 +1225,9 @@
       <c:pivotFmt>
         <c:idx val="10"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1252,6 +1284,9 @@
       <c:pivotFmt>
         <c:idx val="11"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1308,6 +1343,9 @@
       <c:pivotFmt>
         <c:idx val="12"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1364,6 +1402,9 @@
       <c:pivotFmt>
         <c:idx val="13"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1420,6 +1461,9 @@
       <c:pivotFmt>
         <c:idx val="14"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1476,6 +1520,9 @@
       <c:pivotFmt>
         <c:idx val="15"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1532,6 +1579,9 @@
       <c:pivotFmt>
         <c:idx val="16"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1544,6 +1594,9 @@
       <c:pivotFmt>
         <c:idx val="17"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1556,6 +1609,9 @@
       <c:pivotFmt>
         <c:idx val="18"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1568,6 +1624,9 @@
       <c:pivotFmt>
         <c:idx val="19"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1580,6 +1639,9 @@
       <c:pivotFmt>
         <c:idx val="20"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1592,6 +1654,9 @@
       <c:pivotFmt>
         <c:idx val="21"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1604,6 +1669,9 @@
       <c:pivotFmt>
         <c:idx val="22"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1616,6 +1684,9 @@
       <c:pivotFmt>
         <c:idx val="23"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1628,6 +1699,9 @@
       <c:pivotFmt>
         <c:idx val="24"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1640,6 +1714,9 @@
       <c:pivotFmt>
         <c:idx val="25"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1652,6 +1729,9 @@
       <c:pivotFmt>
         <c:idx val="26"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1664,6 +1744,9 @@
       <c:pivotFmt>
         <c:idx val="27"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1676,6 +1759,9 @@
       <c:pivotFmt>
         <c:idx val="28"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1688,6 +1774,9 @@
       <c:pivotFmt>
         <c:idx val="29"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1700,6 +1789,9 @@
       <c:pivotFmt>
         <c:idx val="30"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1712,6 +1804,9 @@
       <c:pivotFmt>
         <c:idx val="31"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1720,6 +1815,902 @@
           </a:ln>
           <a:effectLst/>
         </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="32"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="33"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="34"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="35"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="36"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="37"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="38"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="39"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="40"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="41"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="42"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="43"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="44"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="45"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="46"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="47"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -4341,15 +5332,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>42862</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4375,6 +5366,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6775,7 +7770,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CB1A4F46-1B50-405A-89E3-B5E7990AF50C}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CB1A4F46-1B50-405A-89E3-B5E7990AF50C}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
   <location ref="A1:R15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField showAll="0"/>
@@ -6933,7 +7928,7 @@
   <dataFields count="1">
     <dataField name="Sum of tau" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="16">
+  <chartFormats count="64">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -7072,6 +8067,582 @@
     <chartFormat chart="0" format="15" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
+          <reference field="5" count="1" selected="0">
+            <x v="15"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="32" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="33" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="34" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="35" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="36" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="37" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="38" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="39" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="40" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="41" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="42" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="43" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="44" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="45" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="13"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="46" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="14"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="47" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="15"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="48" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="49" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="50" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="51" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="52" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="53" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="54" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="55" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="56" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="57" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="58" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="59" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="60" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="61" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="13"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="62" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="14"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="63" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="15"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="64" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="65" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="66" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="67" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="68" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="69" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="70" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="71" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="72" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="73" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="74" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="75" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="76" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="77" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="13"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="78" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="14"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="79" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
           <reference field="5" count="1" selected="0">
             <x v="15"/>
           </reference>
@@ -7380,12 +8951,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D94772-AA50-4C88-A9E8-7FE1D8E8920F}">
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.265625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
@@ -7397,7 +8970,7 @@
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>171</v>
       </c>
@@ -7405,7 +8978,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>168</v>
       </c>
@@ -7461,731 +9034,731 @@
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3">
         <v>8.0691680000000012</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3">
         <v>0.26331850000000001</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3">
         <v>1.8182945000000001</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3">
         <v>0.11127695</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3">
         <v>0.10823045000000001</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3">
         <v>0.11905275</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3">
         <v>16.587240000000001</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3">
         <v>0.15698614999999999</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3">
         <v>7.9694700000000007E-2</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3">
         <v>5.8787400000000004E-2</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3">
         <v>0.35148049999999997</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3">
         <v>0.1078438</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3">
         <v>0.45292949999999998</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3">
         <v>8.0897999999999998E-2</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3">
         <v>8.7396950000000001E-2</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="Q3">
         <v>9.1153399999999996E-2</v>
       </c>
-      <c r="R3" s="5">
+      <c r="R3">
         <v>28.543751549999996</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4">
         <v>7.8746600000000004</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4">
         <v>0.120809</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4">
         <v>0.74506950000000005</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4">
         <v>5.36096E-2</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4">
         <v>6.4628350000000001E-2</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4">
         <v>6.8435700000000002E-2</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4">
         <v>8.3842999999999996</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4">
         <v>4.4994649999999997E-2</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4">
         <v>3.9253400000000001E-2</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4">
         <v>2.617705E-2</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4">
         <v>0.19647999999999999</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4">
         <v>5.5902E-2</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4">
         <v>0.155777</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4">
         <v>3.8353699999999998E-2</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4">
         <v>3.565745E-2</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="Q4">
         <v>5.2919599999999997E-2</v>
       </c>
-      <c r="R4" s="5">
+      <c r="R4">
         <v>17.957026999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5">
         <v>0.19450799999999999</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5">
         <v>0.14250950000000001</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5">
         <v>1.0732250000000001</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5">
         <v>5.7667349999999999E-2</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5">
         <v>4.3602099999999998E-2</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5">
         <v>5.0617049999999997E-2</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5">
         <v>8.2029399999999999</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5">
         <v>0.11199149999999999</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5">
         <v>4.0441299999999999E-2</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5">
         <v>3.2610350000000003E-2</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5">
         <v>0.15500050000000001</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5">
         <v>5.1941800000000003E-2</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5">
         <v>0.29715249999999999</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5">
         <v>4.25443E-2</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5">
         <v>5.1739500000000001E-2</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5">
         <v>3.8233799999999998E-2</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5">
         <v>10.58672455</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6">
         <v>0.44873449999999998</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6">
         <v>0.36444299999999996</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6">
         <v>0.61520149999999996</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6">
         <v>8.8456355000000002</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6">
         <v>15.1891</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6">
         <v>0.11023280000000001</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6">
         <v>16.54027</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6">
         <v>9.8773449999999999E-2</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6">
         <v>6.48947E-2</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6">
         <v>6.5706750000000008E-2</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6">
         <v>0.28776239999999997</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6">
         <v>9.4814549999999997E-2</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6">
         <v>8.9882779999999993</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6">
         <v>9.9637450000000002E-2</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6">
         <v>8.2808533499999992</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="Q6">
         <v>0.11488519999999999</v>
       </c>
-      <c r="R6" s="5">
+      <c r="R6">
         <v>60.20922315</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7">
         <v>0.19929849999999999</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7">
         <v>0.2374375</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7">
         <v>0.2506815</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7">
         <v>0.14401050000000001</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7">
         <v>8.3411600000000004</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7">
         <v>6.5912650000000003E-2</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7">
         <v>8.0456000000000003</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7">
         <v>6.4072749999999998E-2</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7">
         <v>2.94758E-2</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7">
         <v>3.1576300000000002E-2</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7">
         <v>0.208368</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7">
         <v>5.4268700000000003E-2</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7">
         <v>0.17150299999999999</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7">
         <v>4.616435E-2</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7">
         <v>8.1882999999999999</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="Q7">
         <v>5.2025750000000003E-2</v>
       </c>
-      <c r="R7" s="5">
+      <c r="R7">
         <v>26.129855300000003</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8">
         <v>0.24943599999999999</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8">
         <v>0.12700549999999999</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8">
         <v>0.36452000000000001</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8">
         <v>8.7016249999999999</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8">
         <v>6.8479400000000004</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8">
         <v>4.4320150000000003E-2</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8">
         <v>8.4946699999999993</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8">
         <v>3.4700700000000001E-2</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8">
         <v>3.5418900000000003E-2</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8">
         <v>3.413045E-2</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8">
         <v>7.9394400000000004E-2</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8">
         <v>4.0545850000000001E-2</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8">
         <v>8.8167749999999998</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8">
         <v>5.3473100000000003E-2</v>
       </c>
-      <c r="P8" s="5">
+      <c r="P8">
         <v>9.2553350000000006E-2</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="Q8">
         <v>6.2859449999999997E-2</v>
       </c>
-      <c r="R8" s="5">
+      <c r="R8">
         <v>34.079367849999997</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9">
         <v>0.5616525</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9">
         <v>8.960957500000001</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9">
         <v>0.92196900000000004</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9">
         <v>0.39912694999999998</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9">
         <v>9.1004330000000007</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9">
         <v>0.11673420000000001</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9">
         <v>16.663550000000001</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9">
         <v>0.13101269999999998</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9">
         <v>8.7109400000000003E-2</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9">
         <v>0.10079494999999999</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9">
         <v>0.18020704999999998</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9">
         <v>8.3794649999999998E-2</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9">
         <v>1.3865095000000001</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9">
         <v>0.1381684</v>
       </c>
-      <c r="P9" s="5">
+      <c r="P9">
         <v>8.5415541499999996</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="Q9">
         <v>0.13989055</v>
       </c>
-      <c r="R9" s="5">
+      <c r="R9">
         <v>47.513464500000005</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10">
         <v>0.17657600000000001</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10">
         <v>8.4569500000000009</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10">
         <v>0.21229500000000001</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10">
         <v>4.6615450000000003E-2</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10">
         <v>8.6702150000000007</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10">
         <v>5.5273200000000001E-2</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10">
         <v>8.4193899999999999</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10">
         <v>6.0502550000000002E-2</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10">
         <v>4.3568700000000002E-2</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10">
         <v>6.1456799999999999E-2</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10">
         <v>7.9107549999999999E-2</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10">
         <v>3.0769000000000001E-2</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10">
         <v>0.17500950000000001</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O10">
         <v>6.1193350000000001E-2</v>
       </c>
-      <c r="P10" s="5">
+      <c r="P10">
         <v>6.1179150000000002E-2</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="Q10">
         <v>8.1678899999999999E-2</v>
       </c>
-      <c r="R10" s="5">
+      <c r="R10">
         <v>26.691780150000003</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11">
         <v>0.38507649999999999</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11">
         <v>0.50400750000000005</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11">
         <v>0.70967400000000003</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11">
         <v>0.35251149999999998</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11">
         <v>0.43021799999999999</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11">
         <v>6.1461000000000002E-2</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11">
         <v>8.2441600000000008</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11">
         <v>7.0510149999999994E-2</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11">
         <v>4.3540700000000002E-2</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11">
         <v>3.9338150000000002E-2</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11">
         <v>0.10109949999999999</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11">
         <v>5.3025650000000001E-2</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11">
         <v>1.2115</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O11">
         <v>7.6975050000000003E-2</v>
       </c>
-      <c r="P11" s="5">
+      <c r="P11">
         <v>8.4803750000000004</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="Q11">
         <v>5.8211649999999997E-2</v>
       </c>
-      <c r="R11" s="5">
+      <c r="R11">
         <v>20.821684350000002</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12">
         <v>0.50684550000000006</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12">
         <v>0.23293249999999999</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12">
         <v>1.1324905000000001</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12">
         <v>0.29252299999999998</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12">
         <v>17.238189999999999</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12">
         <v>0.12360020000000001</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12">
         <v>16.860019999999999</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12">
         <v>0.14744210000000002</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12">
         <v>9.8173300000000005E-2</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12">
         <v>0.1134442</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12">
         <v>0.2159732</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12">
         <v>0.12363825000000001</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12">
         <v>11.28936</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12">
         <v>8.8560294499999994</v>
       </c>
-      <c r="P12" s="5">
+      <c r="P12">
         <v>8.63932535</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="Q12">
         <v>9.6283549999999996E-2</v>
       </c>
-      <c r="R12" s="5">
+      <c r="R12">
         <v>65.9662711</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13">
         <v>0.30747750000000001</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13">
         <v>0.118487</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13">
         <v>0.76065850000000002</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13">
         <v>0.1506545</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13">
         <v>8.6670549999999995</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13">
         <v>6.8147650000000004E-2</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13">
         <v>8.4816350000000007</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13">
         <v>6.4501900000000001E-2</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13">
         <v>3.088805E-2</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13">
         <v>7.2808650000000003E-2</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13">
         <v>8.0326700000000001E-2</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13">
         <v>6.1642000000000002E-2</v>
       </c>
-      <c r="N13" s="5">
+      <c r="N13">
         <v>2.524035</v>
       </c>
-      <c r="O13" s="5">
+      <c r="O13">
         <v>7.7909450000000005E-2</v>
       </c>
-      <c r="P13" s="5">
+      <c r="P13">
         <v>6.2815350000000006E-2</v>
       </c>
-      <c r="Q13" s="5">
+      <c r="Q13">
         <v>4.3212E-2</v>
       </c>
-      <c r="R13" s="5">
+      <c r="R13">
         <v>21.572254250000004</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14">
         <v>0.19936799999999999</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14">
         <v>0.11444550000000001</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14">
         <v>0.371832</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14">
         <v>0.14186850000000001</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14">
         <v>8.5711349999999999</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14">
         <v>5.5452550000000003E-2</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14">
         <v>8.3783849999999997</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14">
         <v>8.2940200000000006E-2</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14">
         <v>6.7285250000000005E-2</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14">
         <v>4.0635549999999999E-2</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14">
         <v>0.1356465</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14">
         <v>6.1996250000000003E-2</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N14">
         <v>8.7653250000000007</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O14">
         <v>8.7781199999999995</v>
       </c>
-      <c r="P14" s="5">
+      <c r="P14">
         <v>8.5765100000000007</v>
       </c>
-      <c r="Q14" s="5">
+      <c r="Q14">
         <v>5.3071550000000002E-2</v>
       </c>
-      <c r="R14" s="5">
+      <c r="R14">
         <v>44.39401685</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15">
         <v>9.5864004999999999</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15">
         <v>9.8216515000000015</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15">
         <v>4.4879555000000009</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15">
         <v>9.6485624000000012</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15">
         <v>41.635953450000002</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15">
         <v>0.46961995000000001</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15">
         <v>66.651079999999993</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15">
         <v>0.53421439999999998</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15">
         <v>0.3298721</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15">
         <v>0.33873330000000007</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15">
         <v>1.03542315</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15">
         <v>0.41009124999999991</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N15">
         <v>22.117077000000002</v>
       </c>
-      <c r="O15" s="5">
+      <c r="O15">
         <v>9.1747332999999998</v>
       </c>
-      <c r="P15" s="5">
+      <c r="P15">
         <v>25.549129800000003</v>
       </c>
-      <c r="Q15" s="5">
+      <c r="Q15">
         <v>0.44221270000000007</v>
       </c>
-      <c r="R15" s="5">
+      <c r="R15">
         <v>202.23271030000001</v>
       </c>
     </row>
@@ -8201,9 +9774,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8253,7 +9826,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -8303,7 +9876,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -8353,7 +9926,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -8403,7 +9976,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -8453,7 +10026,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -8503,7 +10076,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -8553,7 +10126,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -8603,7 +10176,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -8653,7 +10226,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -8703,7 +10276,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -8753,7 +10326,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -8803,7 +10376,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -8853,7 +10426,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -8903,7 +10476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -8953,7 +10526,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -9003,7 +10576,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -9053,7 +10626,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -9103,7 +10676,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -9153,7 +10726,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -9197,7 +10770,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -9247,7 +10820,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -9297,7 +10870,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -9347,7 +10920,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -9397,7 +10970,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -9447,7 +11020,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -9497,7 +11070,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -9547,7 +11120,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -9597,7 +11170,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -9647,7 +11220,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -9697,7 +11270,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>57</v>
       </c>
@@ -9747,7 +11320,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>58</v>
       </c>
@@ -9797,7 +11370,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>59</v>
       </c>
@@ -9847,7 +11420,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>60</v>
       </c>
@@ -9897,7 +11470,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>62</v>
       </c>
@@ -9947,7 +11520,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>63</v>
       </c>
@@ -9997,7 +11570,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>64</v>
       </c>
@@ -10047,7 +11620,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>65</v>
       </c>
@@ -10097,7 +11670,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>66</v>
       </c>
@@ -10147,7 +11720,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>67</v>
       </c>
@@ -10197,7 +11770,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>68</v>
       </c>
@@ -10247,7 +11820,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>69</v>
       </c>
@@ -10297,7 +11870,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>71</v>
       </c>
@@ -10347,7 +11920,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>72</v>
       </c>
@@ -10397,7 +11970,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>73</v>
       </c>
@@ -10447,7 +12020,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>74</v>
       </c>
@@ -10497,7 +12070,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>75</v>
       </c>
@@ -10547,7 +12120,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>76</v>
       </c>
@@ -10597,7 +12170,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>77</v>
       </c>
@@ -10647,7 +12220,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>78</v>
       </c>
@@ -10697,7 +12270,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>80</v>
       </c>
@@ -10732,7 +12305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>81</v>
       </c>
@@ -10782,7 +12355,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>82</v>
       </c>
@@ -10832,7 +12405,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>83</v>
       </c>
@@ -10882,7 +12455,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>84</v>
       </c>
@@ -10932,7 +12505,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>85</v>
       </c>
@@ -10982,7 +12555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>86</v>
       </c>
@@ -11032,7 +12605,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>87</v>
       </c>
@@ -11082,7 +12655,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>89</v>
       </c>
@@ -11117,7 +12690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>90</v>
       </c>
@@ -11167,7 +12740,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>91</v>
       </c>
@@ -11217,7 +12790,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>92</v>
       </c>
@@ -11267,7 +12840,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>93</v>
       </c>
@@ -11317,7 +12890,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>94</v>
       </c>
@@ -11367,7 +12940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>95</v>
       </c>
@@ -11417,7 +12990,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>96</v>
       </c>
@@ -11467,7 +13040,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>98</v>
       </c>
@@ -11517,7 +13090,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>99</v>
       </c>
@@ -11567,7 +13140,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>100</v>
       </c>
@@ -11617,7 +13190,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>101</v>
       </c>
@@ -11667,7 +13240,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>102</v>
       </c>
@@ -11717,7 +13290,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>103</v>
       </c>
@@ -11767,7 +13340,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>104</v>
       </c>
@@ -11817,7 +13390,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>105</v>
       </c>
@@ -11867,7 +13440,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>107</v>
       </c>
@@ -11917,7 +13490,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>108</v>
       </c>
@@ -11967,7 +13540,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>109</v>
       </c>
@@ -12017,7 +13590,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>110</v>
       </c>
@@ -12067,7 +13640,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>111</v>
       </c>
@@ -12117,7 +13690,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>112</v>
       </c>
@@ -12167,7 +13740,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>113</v>
       </c>
@@ -12217,7 +13790,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>114</v>
       </c>
@@ -12267,7 +13840,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>116</v>
       </c>
@@ -12317,7 +13890,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>117</v>
       </c>
@@ -12367,7 +13940,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>118</v>
       </c>
@@ -12417,7 +13990,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>119</v>
       </c>
@@ -12467,7 +14040,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>120</v>
       </c>
@@ -12517,7 +14090,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>121</v>
       </c>
@@ -12567,7 +14140,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>122</v>
       </c>
@@ -12617,7 +14190,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>123</v>
       </c>
@@ -12667,7 +14240,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>125</v>
       </c>
@@ -12717,7 +14290,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>126</v>
       </c>
@@ -12767,7 +14340,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>127</v>
       </c>
@@ -12817,7 +14390,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>128</v>
       </c>
@@ -12867,7 +14440,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>129</v>
       </c>
@@ -12917,7 +14490,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>130</v>
       </c>
@@ -12967,7 +14540,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>131</v>
       </c>
@@ -13017,7 +14590,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>132</v>
       </c>
@@ -13067,7 +14640,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>134</v>
       </c>
@@ -13117,7 +14690,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>135</v>
       </c>
@@ -13167,7 +14740,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>136</v>
       </c>
@@ -13217,7 +14790,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>137</v>
       </c>
@@ -13267,7 +14840,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>138</v>
       </c>
@@ -13317,7 +14890,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>139</v>
       </c>
@@ -13367,7 +14940,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>140</v>
       </c>
@@ -13417,7 +14990,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>141</v>
       </c>
@@ -13467,7 +15040,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>143</v>
       </c>
@@ -13517,7 +15090,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>144</v>
       </c>
@@ -13567,7 +15140,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>145</v>
       </c>
@@ -13617,7 +15190,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>146</v>
       </c>
@@ -13667,7 +15240,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>147</v>
       </c>
@@ -13717,7 +15290,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>148</v>
       </c>
@@ -13767,7 +15340,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>149</v>
       </c>
@@ -13817,7 +15390,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>150</v>
       </c>
@@ -13867,7 +15440,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>152</v>
       </c>
@@ -13917,7 +15490,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>153</v>
       </c>
@@ -13967,7 +15540,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>154</v>
       </c>
@@ -14017,7 +15590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>155</v>
       </c>
@@ -14067,7 +15640,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>156</v>
       </c>
@@ -14117,7 +15690,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>157</v>
       </c>
@@ -14167,7 +15740,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>158</v>
       </c>
@@ -14217,7 +15790,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>159</v>
       </c>
@@ -14267,7 +15840,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>161</v>
       </c>
@@ -14317,7 +15890,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>162</v>
       </c>
@@ -14367,7 +15940,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>163</v>
       </c>
@@ -14417,7 +15990,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>164</v>
       </c>
@@ -14467,7 +16040,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>165</v>
       </c>
@@ -14517,7 +16090,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>166</v>
       </c>
@@ -14567,7 +16140,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>167</v>
       </c>

--- a/para_dt.xlsx
+++ b/para_dt.xlsx
@@ -1,30 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4939c42b6b4aa92f/Documents/GitHub/BART-comp-model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="11_6CEF7FD58F79A8D366075C52F37BD272AA4783D6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7415B3D4-871E-4F07-8EC3-536E1CDDF8B9}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="11_6CEF7FD58F79A8D366075C52F37BD272AA4783D6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1575F60E-537B-4ECD-A333-3AC183126D25}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="175">
   <si>
     <t>trial_ID</t>
   </si>
@@ -540,6 +541,15 @@
   </si>
   <si>
     <t>Sum of tau</t>
+  </si>
+  <si>
+    <t>(All)</t>
+  </si>
+  <si>
+    <t>Average of tau</t>
+  </si>
+  <si>
+    <t>StdDev of tau</t>
   </si>
 </sst>
 </file>
@@ -1819,6 +1829,9 @@
       <c:pivotFmt>
         <c:idx val="32"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1875,6 +1888,9 @@
       <c:pivotFmt>
         <c:idx val="33"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1931,6 +1947,9 @@
       <c:pivotFmt>
         <c:idx val="34"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1987,6 +2006,9 @@
       <c:pivotFmt>
         <c:idx val="35"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2043,6 +2065,9 @@
       <c:pivotFmt>
         <c:idx val="36"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2099,6 +2124,9 @@
       <c:pivotFmt>
         <c:idx val="37"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2155,6 +2183,9 @@
       <c:pivotFmt>
         <c:idx val="38"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2211,6 +2242,9 @@
       <c:pivotFmt>
         <c:idx val="39"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2267,6 +2301,9 @@
       <c:pivotFmt>
         <c:idx val="40"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2323,6 +2360,9 @@
       <c:pivotFmt>
         <c:idx val="41"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2379,6 +2419,9 @@
       <c:pivotFmt>
         <c:idx val="42"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2435,6 +2478,9 @@
       <c:pivotFmt>
         <c:idx val="43"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2491,6 +2537,9 @@
       <c:pivotFmt>
         <c:idx val="44"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2547,6 +2596,9 @@
       <c:pivotFmt>
         <c:idx val="45"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2603,6 +2655,9 @@
       <c:pivotFmt>
         <c:idx val="46"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2658,6 +2713,121 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="47"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="48"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="49"/>
         <c:spPr>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
@@ -2723,11 +2893,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$B$1:$B$2</c:f>
+              <c:f>Sheet2!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>01</c:v>
+                  <c:v>Average of tau</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2745,82 +2915,114 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Sheet2!$A$3:$A$15</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="8"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>2</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>D1</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>D2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>N1</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>N2</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+            <c:strRef>
+              <c:f>Sheet2!$A$5:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$3:$B$15</c:f>
+              <c:f>Sheet2!$B$5:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>7.8746600000000004</c:v>
+                  <c:v>1.1983000625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.19450799999999999</c:v>
+                  <c:v>1.2277064375000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19929849999999999</c:v>
+                  <c:v>0.56099443750000011</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.24943599999999999</c:v>
+                  <c:v>1.2060703000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.17657600000000001</c:v>
+                  <c:v>5.2044941812500003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.38507649999999999</c:v>
+                  <c:v>5.8702493750000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.30747750000000001</c:v>
+                  <c:v>8.3313849999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.19936799999999999</c:v>
+                  <c:v>6.6776799999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.12340125E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.2341662500000009E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.12942789374999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.1261406249999988E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.7646346250000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1468416625</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.1936412250000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.5276587500000009E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2837,11 +3039,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$C$1:$C$2</c:f>
+              <c:f>Sheet2!$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>02</c:v>
+                  <c:v>StdDev of tau</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2859,82 +3061,114 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Sheet2!$A$3:$A$15</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="8"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>2</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>D1</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>D2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>N1</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>N2</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+            <c:strRef>
+              <c:f>Sheet2!$A$5:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$C$3:$C$15</c:f>
+              <c:f>Sheet2!$C$5:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0.120809</c:v>
+                  <c:v>2.6985819126936366</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14250950000000001</c:v>
+                  <c:v>2.9240497788969648</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2374375</c:v>
+                  <c:v>0.304843092472462</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12700549999999999</c:v>
+                  <c:v>3.030267136652669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.4569500000000009</c:v>
+                  <c:v>4.2040991243177723</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.50400750000000005</c:v>
+                  <c:v>8.7675570204849649E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.118487</c:v>
+                  <c:v>0.15481339728387333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.11444550000000001</c:v>
+                  <c:v>2.3527351915771835E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1790430755754861E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.62343018543794E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.3008176180003752E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0636257896709449E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.8066089051161751</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.083537753801644</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.3251257591519199</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.320277515816138E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2942,1627 +3176,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1224-434B-975B-1B46DB215E00}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$D$1:$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>03</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Sheet2!$A$3:$A$15</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="8"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>2</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>D1</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>D2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>N1</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>N2</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$D$3:$D$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.74506950000000005</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0732250000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2506815</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.36452000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.21229500000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.70967400000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.76065850000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.371832</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1224-434B-975B-1B46DB215E00}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$E$1:$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>04</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Sheet2!$A$3:$A$15</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="8"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>2</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>D1</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>D2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>N1</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>N2</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$E$3:$E$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5.36096E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.7667349999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.14401050000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.7016249999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.6615450000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.35251149999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.1506545</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.14186850000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-1224-434B-975B-1B46DB215E00}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$F$1:$F$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>05</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Sheet2!$A$3:$A$15</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="8"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>2</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>D1</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>D2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>N1</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>N2</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$F$3:$F$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>6.4628350000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.3602099999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.3411600000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.8479400000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.6702150000000007</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.43021799999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.6670549999999995</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.5711349999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-1224-434B-975B-1B46DB215E00}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$G$1:$G$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>06</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Sheet2!$A$3:$A$15</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="8"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>2</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>D1</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>D2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>N1</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>N2</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$G$3:$G$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>6.8435700000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.0617049999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.5912650000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.4320150000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.5273200000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.1461000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.8147650000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.5452550000000003E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-1224-434B-975B-1B46DB215E00}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$H$1:$H$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>07</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Sheet2!$A$3:$A$15</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="8"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>2</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>D1</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>D2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>N1</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>N2</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$H$3:$H$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>8.3842999999999996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.2029399999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0456000000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.4946699999999993</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.4193899999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.2441600000000008</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.4816350000000007</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.3783849999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-1224-434B-975B-1B46DB215E00}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$I$1:$I$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>08</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Sheet2!$A$3:$A$15</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="8"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>2</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>D1</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>D2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>N1</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>N2</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$I$3:$I$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>4.4994649999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.11199149999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.4072749999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.4700700000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.0502550000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.0510149999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.4501900000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.2940200000000006E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-1224-434B-975B-1B46DB215E00}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$J$1:$J$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>09</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Sheet2!$A$3:$A$15</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="8"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>2</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>D1</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>D2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>N1</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>N2</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$J$3:$J$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>3.9253400000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0441299999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.94758E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.5418900000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.3568700000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.3540700000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.088805E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.7285250000000005E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-1224-434B-975B-1B46DB215E00}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$K$1:$K$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Sheet2!$A$3:$A$15</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="8"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>2</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>D1</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>D2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>N1</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>N2</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$K$3:$K$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2.617705E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.2610350000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.1576300000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.413045E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.1456799999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.9338150000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.2808650000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.0635549999999999E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-1224-434B-975B-1B46DB215E00}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$L$1:$L$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>11</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Sheet2!$A$3:$A$15</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="8"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>2</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>D1</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>D2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>N1</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>N2</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$L$3:$L$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.19647999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.15500050000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.208368</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.9394400000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.9107549999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.10109949999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.0326700000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.1356465</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-1224-434B-975B-1B46DB215E00}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="11"/>
-          <c:order val="11"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$M$1:$M$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Sheet2!$A$3:$A$15</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="8"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>2</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>D1</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>D2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>N1</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>N2</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$M$3:$M$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5.5902E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.1941800000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.4268700000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0545850000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.0769000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.3025650000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.1642000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.1996250000000003E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-1224-434B-975B-1B46DB215E00}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="12"/>
-          <c:order val="12"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$N$1:$N$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>13</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Sheet2!$A$3:$A$15</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="8"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>2</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>D1</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>D2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>N1</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>N2</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$N$3:$N$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.155777</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.29715249999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.17150299999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.8167749999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.17500950000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.2115</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.524035</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.7653250000000007</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-1224-434B-975B-1B46DB215E00}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="13"/>
-          <c:order val="13"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$O$1:$O$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>14</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Sheet2!$A$3:$A$15</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="8"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>2</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>D1</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>D2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>N1</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>N2</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$O$3:$O$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>3.8353699999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.25443E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.616435E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.3473100000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.1193350000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.6975050000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.7909450000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.7781199999999995</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000D-1224-434B-975B-1B46DB215E00}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="14"/>
-          <c:order val="14"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$P$1:$P$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>15</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Sheet2!$A$3:$A$15</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="8"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>2</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>D1</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>D2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>N1</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>N2</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$P$3:$P$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>3.565745E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.1739500000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.1882999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.2553350000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.1179150000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.4803750000000004</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.2815350000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.5765100000000007</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-1224-434B-975B-1B46DB215E00}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="15"/>
-          <c:order val="15"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$Q$1:$Q$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>16</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Sheet2!$A$3:$A$15</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="8"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>2</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>D1</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>D2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>N1</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>N2</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$Q$3:$Q$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5.2919599999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.8233799999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.2025750000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.2859449999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.1678899999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.8211649999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.3212E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.3071550000000002E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000F-1224-434B-975B-1B46DB215E00}"/>
+              <c16:uniqueId val="{00000001-E271-4378-AD9E-856DE423495D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4784,7 +3398,3091 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[para_dt.xlsx]Sheet4!PivotTable2</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$B$1:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet4!$A$3:$A$15</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>D1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>D2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>N1</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>N2</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$3:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7.8746600000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19450799999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19929849999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.24943599999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17657600000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.38507649999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.30747750000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.19936799999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AB75-43BC-8F01-A07AE97BBBFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$C$1:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>02</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet4!$A$3:$A$15</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>D1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>D2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>N1</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>N2</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$C$3:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.120809</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14250950000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2374375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12700549999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.4569500000000009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50400750000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.118487</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11444550000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AB75-43BC-8F01-A07AE97BBBFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$D$1:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>03</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet4!$A$3:$A$15</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>D1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>D2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>N1</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>N2</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$D$3:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.74506950000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0732250000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2506815</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36452000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21229500000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.70967400000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.76065850000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.371832</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-AB75-43BC-8F01-A07AE97BBBFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$E$1:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>04</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet4!$A$3:$A$15</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>D1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>D2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>N1</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>N2</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$E$3:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.36096E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.7667349999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14401050000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.7016249999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6615450000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35251149999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1506545</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14186850000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-AB75-43BC-8F01-A07AE97BBBFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$F$1:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>05</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet4!$A$3:$A$15</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>D1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>D2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>N1</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>N2</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$F$3:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6.4628350000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3602099999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3411600000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.8479400000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6702150000000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.43021799999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.6670549999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.5711349999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-AB75-43BC-8F01-A07AE97BBBFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$G$1:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>06</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet4!$A$3:$A$15</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>D1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>D2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>N1</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>N2</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$G$3:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6.8435700000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0617049999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5912650000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4320150000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5273200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.1461000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.8147650000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.5452550000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-AB75-43BC-8F01-A07AE97BBBFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$H$1:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>07</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet4!$A$3:$A$15</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>D1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>D2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>N1</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>N2</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$H$3:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8.3842999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.2029399999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0456000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.4946699999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.4193899999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.2441600000000008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.4816350000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.3783849999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-AB75-43BC-8F01-A07AE97BBBFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$I$1:$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>08</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet4!$A$3:$A$15</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>D1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>D2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>N1</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>N2</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$I$3:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.4994649999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11199149999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.4072749999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4700700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0502550000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0510149999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.4501900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.2940200000000006E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-AB75-43BC-8F01-A07AE97BBBFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$J$1:$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>09</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet4!$A$3:$A$15</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>D1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>D2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>N1</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>N2</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$J$3:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.9253400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0441299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.94758E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5418900000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3568700000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.3540700000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.088805E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.7285250000000005E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-AB75-43BC-8F01-A07AE97BBBFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$K$1:$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet4!$A$3:$A$15</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>D1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>D2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>N1</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>N2</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$K$3:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.617705E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2610350000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1576300000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.413045E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1456799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.9338150000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.2808650000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0635549999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-AB75-43BC-8F01-A07AE97BBBFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$L$1:$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet4!$A$3:$A$15</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>D1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>D2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>N1</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>N2</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$L$3:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.19647999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15500050000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.208368</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.9394400000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.9107549999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10109949999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0326700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1356465</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-AB75-43BC-8F01-A07AE97BBBFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$M$1:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet4!$A$3:$A$15</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>D1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>D2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>N1</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>N2</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$M$3:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.5902E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1941800000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.4268700000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0545850000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0769000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.3025650000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.1642000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.1996250000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-AB75-43BC-8F01-A07AE97BBBFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$N$1:$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet4!$A$3:$A$15</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>D1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>D2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>N1</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>N2</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$N$3:$N$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.155777</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29715249999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17150299999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.8167749999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17500950000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2115</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.524035</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.7653250000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-AB75-43BC-8F01-A07AE97BBBFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$O$1:$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet4!$A$3:$A$15</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>D1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>D2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>N1</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>N2</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$O$3:$O$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.8353699999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.25443E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.616435E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3473100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1193350000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.6975050000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.7909450000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.7781199999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-AB75-43BC-8F01-A07AE97BBBFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$P$1:$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet4!$A$3:$A$15</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>D1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>D2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>N1</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>N2</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$P$3:$P$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.565745E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1739500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1882999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.2553350000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1179150000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.4803750000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.2815350000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.5765100000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-AB75-43BC-8F01-A07AE97BBBFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$Q$1:$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet4!$A$3:$A$15</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>D1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>D2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>N1</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>N2</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$Q$3:$Q$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.2919599999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8233799999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2025750000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2859449999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.1678899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.8211649999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.3212E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.3071550000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-AB75-43BC-8F01-A07AE97BBBFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1778850304"/>
+        <c:axId val="1778849344"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1778850304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1778849344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1778849344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1778850304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5327,20 +7025,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>23811</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185736</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>42862</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>471487</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5348,6 +7549,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20A76F82-C316-720A-EB17-829E2E9983E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>385763</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFFDB736-A8B5-CE33-5DE2-39E812ECECAD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7770,15 +10012,15 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CB1A4F46-1B50-405A-89E3-B5E7990AF50C}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
-  <location ref="A1:R15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CB1A4F46-1B50-405A-89E3-B5E7990AF50C}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+  <location ref="A4:C21" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
+    <pivotField axis="axisRow" showAll="0">
       <items count="17">
         <item x="0"/>
         <item x="1"/>
@@ -7799,7 +10041,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField axis="axisPage" showAll="0">
       <items count="5">
         <item x="0"/>
         <item x="1"/>
@@ -7808,7 +10050,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField axis="axisPage" showAll="0">
       <items count="3">
         <item x="0"/>
         <item x="1"/>
@@ -7824,55 +10066,10 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
   </pivotFields>
-  <rowFields count="2">
-    <field x="6"/>
-    <field x="7"/>
+  <rowFields count="1">
+    <field x="5"/>
   </rowFields>
-  <rowItems count="13">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="5"/>
-  </colFields>
-  <colItems count="17">
+  <rowItems count="17">
     <i>
       <x/>
     </i>
@@ -7924,11 +10121,27 @@
     <i t="grand">
       <x/>
     </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
   </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of tau" fld="3" baseField="0" baseItem="0"/>
+  <pageFields count="2">
+    <pageField fld="7" hier="-1"/>
+    <pageField fld="6" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Average of tau" fld="3" subtotal="average" baseField="5" baseItem="0"/>
+    <dataField name="StdDev of tau" fld="3" subtotal="stdDev" baseField="5" baseItem="0"/>
   </dataFields>
-  <chartFormats count="64">
+  <chartFormats count="66">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -8649,6 +10862,590 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="0" format="48" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="49" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{91474E5F-1315-4484-8EBB-150E179FCC99}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A1:R15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="16">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="17">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="6"/>
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="5"/>
+  </colFields>
+  <colItems count="17">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of tau" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="33">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="13"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="14"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="15"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="17" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="20" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="21" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="23" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="24" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="25" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="26" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="27" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="28" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="29" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="30" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="13"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="31" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="14"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="32" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="15"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -8949,11 +11746,254 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D94772-AA50-4C88-A9E8-7FE1D8E8920F}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>1.1983000625</v>
+      </c>
+      <c r="C5">
+        <v>2.6985819126936366</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6">
+        <v>1.2277064375000002</v>
+      </c>
+      <c r="C6">
+        <v>2.9240497788969648</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7">
+        <v>0.56099443750000011</v>
+      </c>
+      <c r="C7">
+        <v>0.304843092472462</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8">
+        <v>1.2060703000000002</v>
+      </c>
+      <c r="C8">
+        <v>3.030267136652669</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9">
+        <v>5.2044941812500003</v>
+      </c>
+      <c r="C9">
+        <v>4.2040991243177723</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10">
+        <v>5.8702493750000001E-2</v>
+      </c>
+      <c r="C10">
+        <v>8.7675570204849649E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11">
+        <v>8.3313849999999992</v>
+      </c>
+      <c r="C11">
+        <v>0.15481339728387333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12">
+        <v>6.6776799999999997E-2</v>
+      </c>
+      <c r="C12">
+        <v>2.3527351915771835E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13">
+        <v>4.12340125E-2</v>
+      </c>
+      <c r="C13">
+        <v>1.1790430755754861E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14">
+        <v>4.2341662500000009E-2</v>
+      </c>
+      <c r="C14">
+        <v>1.62343018543794E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15">
+        <v>0.12942789374999999</v>
+      </c>
+      <c r="C15">
+        <v>5.3008176180003752E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16">
+        <v>5.1261406249999988E-2</v>
+      </c>
+      <c r="C16">
+        <v>1.0636257896709449E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17">
+        <v>2.7646346250000002</v>
+      </c>
+      <c r="C17">
+        <v>3.8066089051161751</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18">
+        <v>1.1468416625</v>
+      </c>
+      <c r="C18">
+        <v>3.083537753801644</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B19">
+        <v>3.1936412250000004</v>
+      </c>
+      <c r="C19">
+        <v>4.3251257591519199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B20">
+        <v>5.5276587500000009E-2</v>
+      </c>
+      <c r="C20">
+        <v>1.320277515816138E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B21">
+        <v>1.5799430492187498</v>
+      </c>
+      <c r="C21">
+        <v>3.1276213759427347</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F03174-142D-4846-A08E-1E6C3C23389D}">
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -9768,7 +12808,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P129"/>
   <sheetViews>

--- a/para_dt.xlsx
+++ b/para_dt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4939c42b6b4aa92f/Documents/GitHub/BART-comp-model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="102" documentId="11_13555DD78F79A8D366075C52F37BD272BACCF69A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F38C866-A4DA-4DD5-8EA3-9729DE3C0252}"/>
+  <xr:revisionPtr revIDLastSave="103" documentId="11_13555DD78F79A8D366075C52F37BD272BACCF69A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5E418CE-99A8-4CEF-A92D-076694A13442}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -685,7 +685,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -694,7 +694,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -738,6 +737,9 @@
       <c:pivotFmt>
         <c:idx val="0"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -794,6 +796,9 @@
       <c:pivotFmt>
         <c:idx val="1"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -850,6 +855,9 @@
       <c:pivotFmt>
         <c:idx val="2"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -906,6 +914,9 @@
       <c:pivotFmt>
         <c:idx val="3"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -962,6 +973,9 @@
       <c:pivotFmt>
         <c:idx val="4"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1018,6 +1032,9 @@
       <c:pivotFmt>
         <c:idx val="5"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1074,6 +1091,9 @@
       <c:pivotFmt>
         <c:idx val="6"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1130,6 +1150,9 @@
       <c:pivotFmt>
         <c:idx val="7"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1186,6 +1209,9 @@
       <c:pivotFmt>
         <c:idx val="8"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1242,6 +1268,9 @@
       <c:pivotFmt>
         <c:idx val="9"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1298,6 +1327,9 @@
       <c:pivotFmt>
         <c:idx val="10"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1354,6 +1386,9 @@
       <c:pivotFmt>
         <c:idx val="11"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1410,6 +1445,9 @@
       <c:pivotFmt>
         <c:idx val="12"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1466,6 +1504,9 @@
       <c:pivotFmt>
         <c:idx val="13"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1522,6 +1563,9 @@
       <c:pivotFmt>
         <c:idx val="14"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1578,6 +1622,9 @@
       <c:pivotFmt>
         <c:idx val="15"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1634,6 +1681,9 @@
       <c:pivotFmt>
         <c:idx val="16"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1690,6 +1740,9 @@
       <c:pivotFmt>
         <c:idx val="17"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1746,6 +1799,9 @@
       <c:pivotFmt>
         <c:idx val="18"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1802,6 +1858,9 @@
       <c:pivotFmt>
         <c:idx val="19"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1858,6 +1917,9 @@
       <c:pivotFmt>
         <c:idx val="20"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1913,6 +1975,905 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="21"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="22"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="23"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="24"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="25"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="26"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="27"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="28"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="29"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="30"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="31"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="32"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="33"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="34"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="35"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="36"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="37"/>
         <c:spPr>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
@@ -4599,16 +5560,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>128586</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>638174</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>90486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4634,6 +5595,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10336,7 +11301,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C776E6AB-3F03-4768-BCC0-9CB741E15147}" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C776E6AB-3F03-4768-BCC0-9CB741E15147}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:R17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="40">
     <pivotField showAll="0"/>
@@ -10691,7 +11656,7 @@
   <dataFields count="1">
     <dataField name="Sum of tau" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="32">
+  <chartFormats count="48">
     <chartFormat chart="1" format="6" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -10974,6 +11939,198 @@
     <chartFormat chart="0" format="43" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
+          <reference field="5" count="1" selected="0">
+            <x v="15"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="23" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="24" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="25" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="26" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="27" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="28" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="29" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="30" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="31" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="32" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="33" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="34" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="35" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="13"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="36" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="14"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="37" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
           <reference field="5" count="1" selected="0">
             <x v="15"/>
           </reference>
@@ -11369,167 +12526,167 @@
       <c r="A5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5">
         <v>8.0691680000000012</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5">
         <v>0.26331850000000001</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5">
         <v>1.8182945000000001</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5">
         <v>0.11127695</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5">
         <v>0.10823045000000001</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5">
         <v>0.11905275</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5">
         <v>16.587240000000001</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5">
         <v>0.15698614999999999</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5">
         <v>7.9694700000000007E-2</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5">
         <v>5.8787400000000004E-2</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5">
         <v>0.35148049999999997</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5">
         <v>0.1078438</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5">
         <v>0.45292949999999998</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5">
         <v>8.0897999999999998E-2</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5">
         <v>8.7396950000000001E-2</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5">
         <v>9.1153399999999996E-2</v>
       </c>
-      <c r="R5" s="4">
+      <c r="R5">
         <v>28.543751549999996</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6">
         <v>7.8746600000000004</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6">
         <v>0.120809</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6">
         <v>0.74506950000000005</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6">
         <v>5.36096E-2</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6">
         <v>6.4628350000000001E-2</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6">
         <v>6.8435700000000002E-2</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6">
         <v>8.3842999999999996</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6">
         <v>4.4994649999999997E-2</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6">
         <v>3.9253400000000001E-2</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6">
         <v>2.617705E-2</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6">
         <v>0.19647999999999999</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6">
         <v>5.5902E-2</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6">
         <v>0.155777</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6">
         <v>3.8353699999999998E-2</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6">
         <v>3.565745E-2</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6">
         <v>5.2919599999999997E-2</v>
       </c>
-      <c r="R6" s="4">
+      <c r="R6">
         <v>17.957026999999997</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7">
         <v>0.19450799999999999</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7">
         <v>0.14250950000000001</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7">
         <v>1.0732250000000001</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7">
         <v>5.7667349999999999E-2</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7">
         <v>4.3602099999999998E-2</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7">
         <v>5.0617049999999997E-2</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7">
         <v>8.2029399999999999</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7">
         <v>0.11199149999999999</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7">
         <v>4.0441299999999999E-2</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7">
         <v>3.2610350000000003E-2</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7">
         <v>0.15500050000000001</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7">
         <v>5.1941800000000003E-2</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7">
         <v>0.29715249999999999</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7">
         <v>4.25443E-2</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7">
         <v>5.1739500000000001E-2</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7">
         <v>3.8233799999999998E-2</v>
       </c>
-      <c r="R7" s="4">
+      <c r="R7">
         <v>10.58672455</v>
       </c>
     </row>
@@ -11537,167 +12694,167 @@
       <c r="A8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8">
         <v>0.44873449999999998</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8">
         <v>0.36444299999999996</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8">
         <v>0.61520149999999996</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8">
         <v>8.8456355000000002</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8">
         <v>15.1891</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8">
         <v>0.11023280000000001</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8">
         <v>16.54027</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8">
         <v>9.8773449999999999E-2</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8">
         <v>6.48947E-2</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8">
         <v>6.5706750000000008E-2</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8">
         <v>0.28776239999999997</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8">
         <v>9.4814549999999997E-2</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8">
         <v>8.9882779999999993</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8">
         <v>9.9637450000000002E-2</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8">
         <v>8.2808533499999992</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8">
         <v>0.11488519999999999</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R8">
         <v>60.20922315</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9">
         <v>0.19929849999999999</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9">
         <v>0.2374375</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9">
         <v>0.2506815</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9">
         <v>0.14401050000000001</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9">
         <v>8.3411600000000004</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9">
         <v>6.5912650000000003E-2</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9">
         <v>8.0456000000000003</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9">
         <v>6.4072749999999998E-2</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9">
         <v>2.94758E-2</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9">
         <v>3.1576300000000002E-2</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9">
         <v>0.208368</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9">
         <v>5.4268700000000003E-2</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9">
         <v>0.17150299999999999</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9">
         <v>4.616435E-2</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9">
         <v>8.1882999999999999</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9">
         <v>5.2025750000000003E-2</v>
       </c>
-      <c r="R9" s="4">
+      <c r="R9">
         <v>26.129855300000003</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10">
         <v>0.24943599999999999</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10">
         <v>0.12700549999999999</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10">
         <v>0.36452000000000001</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10">
         <v>8.7016249999999999</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10">
         <v>6.8479400000000004</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10">
         <v>4.4320150000000003E-2</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10">
         <v>8.4946699999999993</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10">
         <v>3.4700700000000001E-2</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10">
         <v>3.5418900000000003E-2</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10">
         <v>3.413045E-2</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10">
         <v>7.9394400000000004E-2</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10">
         <v>4.0545850000000001E-2</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10">
         <v>8.8167749999999998</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10">
         <v>5.3473100000000003E-2</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10">
         <v>9.2553350000000006E-2</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10">
         <v>6.2859449999999997E-2</v>
       </c>
-      <c r="R10" s="4">
+      <c r="R10">
         <v>34.079367849999997</v>
       </c>
     </row>
@@ -11705,167 +12862,167 @@
       <c r="A11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11">
         <v>0.5616525</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11">
         <v>8.960957500000001</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11">
         <v>0.92196900000000004</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11">
         <v>0.39912694999999998</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11">
         <v>9.1004330000000007</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11">
         <v>0.11673420000000001</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11">
         <v>16.663550000000001</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11">
         <v>0.13101269999999998</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11">
         <v>8.7109400000000003E-2</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11">
         <v>0.10079494999999999</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11">
         <v>0.18020704999999998</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11">
         <v>8.3794649999999998E-2</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11">
         <v>1.3865095000000001</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11">
         <v>0.1381684</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11">
         <v>8.5415541499999996</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11">
         <v>0.13989055</v>
       </c>
-      <c r="R11" s="4">
+      <c r="R11">
         <v>47.513464500000005</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12">
         <v>0.17657600000000001</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12">
         <v>8.4569500000000009</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12">
         <v>0.21229500000000001</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12">
         <v>4.6615450000000003E-2</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12">
         <v>8.6702150000000007</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12">
         <v>5.5273200000000001E-2</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12">
         <v>8.4193899999999999</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12">
         <v>6.0502550000000002E-2</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12">
         <v>4.3568700000000002E-2</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12">
         <v>6.1456799999999999E-2</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12">
         <v>7.9107549999999999E-2</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12">
         <v>3.0769000000000001E-2</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12">
         <v>0.17500950000000001</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12">
         <v>6.1193350000000001E-2</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12">
         <v>6.1179150000000002E-2</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12">
         <v>8.1678899999999999E-2</v>
       </c>
-      <c r="R12" s="4">
+      <c r="R12">
         <v>26.691780150000003</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13">
         <v>0.38507649999999999</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13">
         <v>0.50400750000000005</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13">
         <v>0.70967400000000003</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13">
         <v>0.35251149999999998</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13">
         <v>0.43021799999999999</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13">
         <v>6.1461000000000002E-2</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13">
         <v>8.2441600000000008</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13">
         <v>7.0510149999999994E-2</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13">
         <v>4.3540700000000002E-2</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13">
         <v>3.9338150000000002E-2</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13">
         <v>0.10109949999999999</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13">
         <v>5.3025650000000001E-2</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13">
         <v>1.2115</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13">
         <v>7.6975050000000003E-2</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13">
         <v>8.4803750000000004</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13">
         <v>5.8211649999999997E-2</v>
       </c>
-      <c r="R13" s="4">
+      <c r="R13">
         <v>20.821684350000002</v>
       </c>
     </row>
@@ -11873,167 +13030,167 @@
       <c r="A14" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14">
         <v>0.50684550000000006</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14">
         <v>0.23293249999999999</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14">
         <v>1.1324905000000001</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14">
         <v>0.29252299999999998</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14">
         <v>17.238189999999999</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14">
         <v>0.12360020000000001</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14">
         <v>16.860019999999999</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14">
         <v>0.14744210000000002</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14">
         <v>9.8173300000000005E-2</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14">
         <v>0.1134442</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14">
         <v>0.2159732</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14">
         <v>0.12363825000000001</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14">
         <v>11.28936</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14">
         <v>8.8560294499999994</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14">
         <v>8.63932535</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="Q14">
         <v>9.6283549999999996E-2</v>
       </c>
-      <c r="R14" s="4">
+      <c r="R14">
         <v>65.9662711</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15">
         <v>0.30747750000000001</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15">
         <v>0.118487</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15">
         <v>0.76065850000000002</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15">
         <v>0.1506545</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15">
         <v>8.6670549999999995</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15">
         <v>6.8147650000000004E-2</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15">
         <v>8.4816350000000007</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15">
         <v>6.4501900000000001E-2</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15">
         <v>3.088805E-2</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15">
         <v>7.2808650000000003E-2</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15">
         <v>8.0326700000000001E-2</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15">
         <v>6.1642000000000002E-2</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15">
         <v>2.524035</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15">
         <v>7.7909450000000005E-2</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15">
         <v>6.2815350000000006E-2</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q15">
         <v>4.3212E-2</v>
       </c>
-      <c r="R15" s="4">
+      <c r="R15">
         <v>21.572254250000004</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16">
         <v>0.19936799999999999</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16">
         <v>0.11444550000000001</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16">
         <v>0.371832</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16">
         <v>0.14186850000000001</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16">
         <v>8.5711349999999999</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16">
         <v>5.5452550000000003E-2</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16">
         <v>8.3783849999999997</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16">
         <v>8.2940200000000006E-2</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16">
         <v>6.7285250000000005E-2</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16">
         <v>4.0635549999999999E-2</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16">
         <v>0.1356465</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16">
         <v>6.1996250000000003E-2</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16">
         <v>8.7653250000000007</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O16">
         <v>8.7781199999999995</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P16">
         <v>8.5765100000000007</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="Q16">
         <v>5.3071550000000002E-2</v>
       </c>
-      <c r="R16" s="4">
+      <c r="R16">
         <v>44.39401685</v>
       </c>
     </row>
@@ -12041,55 +13198,55 @@
       <c r="A17" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17">
         <v>9.5864004999999999</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17">
         <v>9.8216515000000015</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17">
         <v>4.4879555000000009</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17">
         <v>9.6485624000000012</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17">
         <v>41.635953450000002</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17">
         <v>0.46961995000000001</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17">
         <v>66.651079999999993</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17">
         <v>0.53421439999999998</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17">
         <v>0.3298721</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17">
         <v>0.33873330000000007</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17">
         <v>1.03542315</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M17">
         <v>0.41009124999999991</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17">
         <v>22.117077000000002</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O17">
         <v>9.1747332999999998</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P17">
         <v>25.549129800000003</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="Q17">
         <v>0.44221270000000007</v>
       </c>
-      <c r="R17" s="4">
+      <c r="R17">
         <v>202.23271030000001</v>
       </c>
     </row>
